--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\C言語研修\最終課題 自由テーマでプログラムを作成せよ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35F6E0B6-1D6F-4C73-9D5F-819218C047D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BB91C0-842C-45E7-9BD0-646088FC859B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C60E263B-2504-4172-A2F9-FF081DD6B9F1}"/>
+    <workbookView xWindow="0" yWindow="372" windowWidth="21060" windowHeight="11988" activeTab="1" xr2:uid="{C60E263B-2504-4172-A2F9-FF081DD6B9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="トレーサビリティマトリックス形式" sheetId="1" r:id="rId1"/>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDFB884-6CA8-4CC5-94C3-955A3E1124C8}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -835,7 +835,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0CC770-1743-4ABC-8435-06E2CC68BCF8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
